--- a/classfiers/bottleneck/elm/bottleneck_elm_lin_results.xlsx
+++ b/classfiers/bottleneck/elm/bottleneck_elm_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9613733905579399</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.99064039408867</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9356223175965666</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.45</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5454545454545455</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9805164319248826</v>
+        <v>0.9935587761674719</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9570815450643777</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6875</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9928676832267586</v>
+        <v>0.9862068965517242</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9669811320754716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7894736842105262</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9902956443240803</v>
+        <v>0.9923371647509579</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9931818181818182</v>
+        <v>0.9954166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9570223471955011</v>
+        <v>0.9595491186110372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5586466165413534</v>
+        <v>0.2411111111111111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6664211298039822</v>
+        <v>0.342012987012987</v>
       </c>
       <c r="E7" t="n">
-        <v>0.991372315531508</v>
+        <v>0.9916319796450981</v>
       </c>
     </row>
   </sheetData>
